--- a/GP表單開發作業規範.xlsx
+++ b/GP表單開發作業規範.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15360" windowHeight="7395"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15360" windowHeight="7395" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="修訂歷程" sheetId="4" r:id="rId1"/>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
   <si>
     <t>目的：確保電子表單設計規劃符合簡約操作、一致的原則。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1767,56 +1767,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>佈局一致：標題列、單頭、單頭小計、單身Grid、單身小計、規範說明(B)、外接查詢(B)、附件上傳(B)、列印(B)</t>
+  </si>
+  <si>
+    <t>%%建立Pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佈局以兩欄、三欄為主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2)簡潔的表單佈局(含表單列印結果)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)所有表單畫面樣式需相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有表單畫面樣式需相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用重要欄位在前，欄位數量儘量精簡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯讀(DISPLAY ONLY)的欄位排列位置儘量靠(右)後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編輯時，以錄入先後順序跳動Tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox說明一律於左方以Label對齊呈現，或置於右方連接於CheckBox之後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有欄位元控制項不允許遮擋，包括Catpion控制項和內容控制項。</t>
+  </si>
+  <si>
+    <t>畫面設計避免出現橫、縱向捲軸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呈現的內容不可簡繁混雜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制項的條件格式儘量使用ReadOnly，而不是Disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3)準確的訊息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字描述需以使用者角度確認是否理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格要始終有列標題，不論是否有資料</t>
+  </si>
+  <si>
+    <t>Caption的用字盡量精簡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開窗的欄位數量要儘量少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需出現開發人員需要但操作者不需要的資訊</t>
+  </si>
+  <si>
+    <t>(5)僅通知必需知道此事件人員，減少不必要的通知發送。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6)簡約原則、重點為主，主要讓收件者看到主旨，就能瞭解這張表單的重要性與急迫性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(7)簡約原則、重點為主，主要讓收件者看到內容，可以做為簽核之前的參考依據</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅給事件決策處理人員，減少不必要的通知發送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅通知必需知道此事件人員，減少不必要的通知發送。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位元內容若能明白含義，就不需要顯示欄位元名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不出現重覆的信息</t>
+  </si>
+  <si>
+    <t>簡約原則、重點為主，主要讓收件者看到主旨，就能瞭解這張表單的重要性與急迫性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初次公告版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不常異動的資訊放在其他的頁籤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(radiobutton灰色，但字應為黑色)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位從上到下，從左到右。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制項右方邊界需垂直對齊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一列不同行，Label （右對齊）和Edit（左對齊）控制項左右距離一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下控制項之間距必須一致為Npx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一行，高度相同讓Label與Edit會水平置中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容需出現之前的關卡的簽核意見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[通知]、[簽核]、[會辦]起頭，便於收件者理解他接收此表單的預計動作為何。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>表單功能鍵需圖字一併呈現，表單內容鍵僅以文字呈現</t>
-  </si>
-  <si>
-    <t>佈局一致：標題列、單頭、單頭小計、單身Grid、單身小計、規範說明(B)、外接查詢(B)、附件上傳(B)、列印(B)</t>
-  </si>
-  <si>
-    <t>%%建立Pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佈局以兩欄、三欄為主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2)簡潔的表單佈局(含表單列印結果)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1)所有表單畫面樣式需相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有表單畫面樣式需相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用重要欄位在前，欄位數量儘量精簡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯讀(DISPLAY ONLY)的欄位排列位置儘量靠(右)後</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編輯時，以錄入先後順序跳動Tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox說明一律於左方以Label對齊呈現，或置於右方連接於CheckBox之後</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有欄位元控制項不允許遮擋，包括Catpion控制項和內容控制項。</t>
-  </si>
-  <si>
-    <t>畫面設計避免出現橫、縱向捲軸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呈現的內容不可簡繁混雜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容控制項顯示：數字靠右/文字靠左；百分比欄位顯示%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1824,116 +1930,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>控制項的條件格式儘量使用ReadOnly，而不是Disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3)準確的訊息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字描述需以使用者角度確認是否理解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格要始終有列標題，不論是否有資料</t>
-  </si>
-  <si>
-    <t>Caption的用字盡量精簡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>開窗的欄位數量要儘量少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需出現開發人員需要但操作者不需要的資訊</t>
+    <t>除了直線主管簽核外，其他幕僚簽核必須有專業審查才需要簽核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(4)僅給事件決策處理人員，減少不必要的通知發送。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(5)僅通知必需知道此事件人員，減少不必要的通知發送。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(6)簡約原則、重點為主，主要讓收件者看到主旨，就能瞭解這張表單的重要性與急迫性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(7)簡約原則、重點為主，主要讓收件者看到內容，可以做為簽核之前的參考依據</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅給事件決策處理人員，減少不必要的通知發送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僅通知必需知道此事件人員，減少不必要的通知發送。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了直線主管簽核外，其他幕僚簽核必須有專業審查才需要簽核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位元內容若能明白含義，就不需要顯示欄位元名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不出現重覆的信息</t>
-  </si>
-  <si>
-    <t>簡約原則、重點為主，主要讓收件者看到主旨，就能瞭解這張表單的重要性與急迫性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初次公告版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容控制項顯示：數字靠右/文字靠左；百分比欄位顯示%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不常異動的資訊放在其他的頁籤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(radiobutton灰色，但字應為黑色)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位從上到下，從左到右。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制項右方邊界需垂直對齊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一列不同行，Label （右對齊）和Edit（左對齊）控制項左右距離一致。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下控制項之間距必須一致為Npx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一行，高度相同讓Label與Edit會水平置中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容需出現之前的關卡的簽核意見</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[通知]、[簽核]、[會辦]起頭，便於收件者理解他接收此表單的預計動作為何。</t>
+    <t>流程簽核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵件主旨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵件內文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2431,6 +2448,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2469,9 +2489,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3584,7 +3601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3635,13 +3652,13 @@
         <v>42138</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>101</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E3" s="28"/>
     </row>
@@ -3685,7 +3702,7 @@
         <v>109</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C1" s="39"/>
     </row>
@@ -3706,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C5" s="46">
         <v>1</v>
@@ -3725,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3777,13 +3794,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C5" s="46">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4072,7 +4089,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4103,55 +4120,55 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4287,10 +4304,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4299,32 +4316,32 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="7" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="62" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -4335,8 +4352,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="7" t="s">
         <v>76</v>
       </c>
@@ -4345,8 +4362,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="7" t="s">
         <v>99</v>
       </c>
@@ -4355,8 +4372,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="30" t="s">
         <v>78</v>
       </c>
@@ -4365,8 +4382,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="62"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="7" t="s">
         <v>92</v>
       </c>
@@ -4375,24 +4392,24 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="62"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="32" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="32" t="s">
         <v>95</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="61" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="62" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="29" t="s">
@@ -4403,31 +4420,31 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="29" t="s">
         <v>82</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="29" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="29" t="s">
         <v>87</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4439,28 +4456,28 @@
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="57" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4469,30 +4486,30 @@
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="57" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -4500,21 +4517,21 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="57"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4555,7 +4572,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4569,7 +4586,7 @@
         <v>109</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="39"/>
     </row>
@@ -4590,16 +4607,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="64"/>
+        <v>145</v>
+      </c>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4607,7 +4624,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -4615,12 +4632,12 @@
         <v>4</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4645,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4643,8 +4660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:C83"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4680,13 +4697,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C5" s="36">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4694,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4702,7 +4719,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4710,7 +4727,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4718,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4726,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4745,12 +4762,12 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,7 +4775,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -4766,7 +4783,7 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -4774,7 +4791,7 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -4782,7 +4799,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -4790,7 +4807,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4806,7 +4823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4843,13 +4860,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="36">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4857,7 +4874,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4865,7 +4882,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -4873,7 +4890,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -4889,7 +4906,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4904,7 +4921,7 @@
         <v>109</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C1" s="39"/>
     </row>
@@ -4925,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C5" s="36">
         <v>1</v>
@@ -4958,7 +4975,7 @@
         <v>109</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C1" s="39"/>
     </row>

--- a/GP表單開發作業規範.xlsx
+++ b/GP表單開發作業規範.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="15360" windowHeight="7395" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15360" windowHeight="7395" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修訂歷程" sheetId="4" r:id="rId1"/>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="160">
   <si>
     <t>目的：確保電子表單設計規劃符合簡約操作、一致的原則。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1951,6 +1951,14 @@
   </si>
   <si>
     <t>郵件內文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程主旨的設定：【表單名稱】為開頭，表單單號放最後面，中間以。區隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位label和Grid Title要一致，且無錯字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2575,6 +2583,82 @@
         <a:xfrm>
           <a:off x="685800" y="5657851"/>
           <a:ext cx="6810375" cy="1129796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6800850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="7352244"/>
+          <a:ext cx="6791325" cy="1743804"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6400000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>56803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9639300"/>
+          <a:ext cx="6400000" cy="2780953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4089,7 +4173,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4569,10 +4653,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4646,6 +4730,22 @@
       </c>
       <c r="B27" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +4760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4823,7 +4923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
